--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4042236.427099407</v>
+        <v>4039901.315897425</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7136767.654957236</v>
+        <v>7136767.654957235</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>142.7303445720055</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6962084215446</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276189</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>108.0165900216661</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>34.27816801143687</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391401973</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>41.13708238253261</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>217.6941418399119</v>
+        <v>142.3478174606644</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.15794421524325</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>210.1268224211551</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>119.8099036979371</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1661,16 +1661,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881299</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>159.2661870898838</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.97752971242</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877918</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,10 +2090,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
-        <v>152.0854776630161</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,13 +2956,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>91.89996056624759</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183131</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>51.36569740310427</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>121.3986907513294</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1653.287154902436</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L2" t="n">
         <v>795.755353087291</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2293.468055702378</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2039.886994966557</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2039.886994966557</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2039.886994966557</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2039.886994966557</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2039.886994966557</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>496.1664670606423</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>496.1664670606423</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
         <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1199.633085308077</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9485971021898</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9485971021898</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>716.9590462041724</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>496.1664670606423</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1202.59552936621</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.59552936621</v>
+        <v>494.4959813233758</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2318.969274873215</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.200619603101</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.734861342021</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1202.59552936621</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,13 +4632,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605191</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919908</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.884232784815</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.331624317611</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>383.6188956900839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2196.097994299121</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,16 +4799,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609169</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339054</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2972.837166339054</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2582.697834363243</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>678.6720730524786</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>509.7358901245717</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D10" t="n">
-        <v>359.619250712236</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1625.214775269096</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1625.214775269096</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1370.530287063209</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1081.113117026248</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1081.113117026248</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>860.3205378827183</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,31 +5048,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380886</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257528</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>443.8134186433597</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>296.9234711454493</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>296.9234711454493</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,19 +6251,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,19 +6543,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1368.154262550759</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
         <v>343.0994656851783</v>
@@ -6853,55 +6853,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>186.6449060441816</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7157,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7193,16 +7193,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7421,25 +7421,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7448,10 +7448,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239598</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239598</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605119</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2206.395003844406</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2395.078540748843</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239598</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327652</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
         <v>641.1291986799072</v>
@@ -7795,61 +7795,61 @@
         <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630049</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515139</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>138.9393975111054</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>20.48480914828679</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2568112467072</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.85445046951727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.31459260778999</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
-        <v>73.62417772602106</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>73.62417772602126</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667965</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.039752924184</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84813034729841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>613289.2213126648</v>
+        <v>613289.2213126647</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="G2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403373</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073555</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081906</v>
+        <v>48293.97000819087</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309567</v>
+        <v>87914.29116309562</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744249</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744215</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744324</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744331</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744268</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744315</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.2563917443</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744324</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744246</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744348</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26525,43 +26525,43 @@
         <v>592581.8604474557</v>
       </c>
       <c r="D6" t="n">
-        <v>432566.397699457</v>
+        <v>432566.3976994563</v>
       </c>
       <c r="E6" t="n">
-        <v>371884.351666999</v>
+        <v>371849.6137415636</v>
       </c>
       <c r="F6" t="n">
-        <v>697296.8134743548</v>
+        <v>697262.0755489189</v>
       </c>
       <c r="G6" t="n">
-        <v>697296.8134743548</v>
+        <v>697262.0755489189</v>
       </c>
       <c r="H6" t="n">
-        <v>697296.813474355</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="I6" t="n">
-        <v>697296.8134743549</v>
+        <v>697262.0755489194</v>
       </c>
       <c r="J6" t="n">
-        <v>529691.6356643724</v>
+        <v>529656.8977389366</v>
       </c>
       <c r="K6" t="n">
-        <v>697296.813474355</v>
+        <v>697262.0755489194</v>
       </c>
       <c r="L6" t="n">
-        <v>649002.8434661647</v>
+        <v>648968.1055407282</v>
       </c>
       <c r="M6" t="n">
-        <v>612241.7855388431</v>
+        <v>612207.0476134071</v>
       </c>
       <c r="N6" t="n">
-        <v>697296.8134743549</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="O6" t="n">
-        <v>697296.8134743546</v>
+        <v>697262.0755489192</v>
       </c>
       <c r="P6" t="n">
-        <v>697296.8134743548</v>
+        <v>697262.0755489193</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26817,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973562</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973562</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>63.92784040822829</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>74.530945699656</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.11971182447584</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>257.2563017493414</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>293.474090458698</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679176</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>245.3859159540584</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>147.5787499310957</v>
+        <v>222.9250743103431</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>9.422126855014113</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-7.713553933517059e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28381,16 +28381,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.120688142604282e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-5.530977974472237e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,16 +33023,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>638.9422653403558</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500301</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>630.8026878560996</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>484.1423712692481</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>650.5350891770649</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893642</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839452</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>530.1364971039794</v>
+        <v>584.5244463807092</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36671,16 +36671,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>496.3460208959114</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280117</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>488.6686539340813</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>350.1679638549179</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>519.1933770937317</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
